--- a/001 -  Получение базовой последовательности псевдослучайных чисел и тестовые проверки его работы/Результат.xlsx
+++ b/001 -  Получение базовой последовательности псевдослучайных чисел и тестовые проверки его работы/Результат.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38413C83-691C-5646-9069-869BA6D98923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3070DA1-66AD-DC4F-81F1-FA18FEB6BF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29660" yWindow="3460" windowWidth="30600" windowHeight="22280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="5020" windowWidth="24200" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -767,7 +767,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -801,22 +801,30 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>0.495470658625351</v>
+      </c>
       <c r="D2" s="2">
         <v>0.5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>4.52934137464844E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="23" customHeight="1" thickBot="1">
       <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>4.1869106064312697E-2</v>
+      </c>
       <c r="D3" s="4">
         <v>8.3330000000000001E-2</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>4.14608939356872E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="23" customHeight="1">
       <c r="A4" s="20">
@@ -825,22 +833,30 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>0.50300044382047304</v>
+      </c>
       <c r="D4" s="6">
         <v>0.5</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>-3.0004438204731501E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="23" customHeight="1" thickBot="1">
       <c r="A5" s="21"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>9.2579583582417496E-2</v>
+      </c>
       <c r="D5" s="8">
         <v>8.3330000000000001E-2</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9">
+        <v>-9.2495835824174897E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="23" customHeight="1">
       <c r="A6" s="20">
@@ -849,22 +865,30 @@
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>0.50386621444743296</v>
+      </c>
       <c r="D6" s="6">
         <v>0.5</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>-3.8662144474335101E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1" thickBot="1">
       <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>8.2113165093442395E-2</v>
+      </c>
       <c r="D7" s="8">
         <v>8.3330000000000001E-2</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9">
+        <v>1.21683490655759E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="23" customHeight="1">
       <c r="A8" s="22">
@@ -873,22 +897,30 @@
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>0.50412977240427104</v>
+      </c>
       <c r="D8" s="10">
         <v>0.5</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11">
+        <v>-4.1297724042719201E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="23" customHeight="1" thickBot="1">
       <c r="A9" s="23"/>
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>8.3167664567838098E-2</v>
+      </c>
       <c r="D9" s="12">
         <v>8.3330000000000001E-2</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="13">
+        <v>1.6233543216190299E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="23" customHeight="1" thickTop="1"/>
   </sheetData>
